--- a/ig/sd-error-url-vs-research-study-status/ValueSet-eclaire-type-contact-vs.xlsx
+++ b/ig/sd-error-url-vs-research-study-status/ValueSet-eclaire-type-contact-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:00:04+00:00</t>
+    <t>2023-09-01T14:24:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
